--- a/data/AT7215KV200.xlsx
+++ b/data/AT7215KV200.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dc5b649c178b8907/Desktop/clubs/Ground-Roll-Calculator/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{1E543D7D-A9D9-43F6-8533-33280C9FF859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B567088-483F-42DC-94FF-FA2ECDD8EDEB}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="8_{1E543D7D-A9D9-43F6-8533-33280C9FF859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F67CDFE-25B7-454E-8570-570C22471746}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{005A929C-A509-43C4-B43D-31717E82D92F}"/>
   </bookViews>
@@ -44,31 +44,31 @@
     <t>RPM</t>
   </si>
   <si>
-    <t>19*10</t>
-  </si>
-  <si>
-    <t>19*10b</t>
-  </si>
-  <si>
-    <t>20*10</t>
-  </si>
-  <si>
-    <t>20*10b</t>
-  </si>
-  <si>
-    <t>20*10c</t>
-  </si>
-  <si>
-    <t>20*10d</t>
-  </si>
-  <si>
-    <t>21*10</t>
-  </si>
-  <si>
     <t>Propeller</t>
   </si>
   <si>
-    <t>21*10b</t>
+    <t>19x10</t>
+  </si>
+  <si>
+    <t>19x10b</t>
+  </si>
+  <si>
+    <t>20x10</t>
+  </si>
+  <si>
+    <t>20x10b</t>
+  </si>
+  <si>
+    <t>20x10c</t>
+  </si>
+  <si>
+    <t>20x10d</t>
+  </si>
+  <si>
+    <t>21x10</t>
+  </si>
+  <si>
+    <t>21x10b</t>
   </si>
 </sst>
 </file>
@@ -154,6 +154,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -455,8 +459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DEBCAD7-3DC2-4B51-AD57-C2ED6DD261F2}">
   <dimension ref="A1:C89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -473,7 +477,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -484,7 +488,7 @@
         <v>3494</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -495,7 +499,7 @@
         <v>3890</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -506,7 +510,7 @@
         <v>4356</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -517,7 +521,7 @@
         <v>4813</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -528,7 +532,7 @@
         <v>5206</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -539,7 +543,7 @@
         <v>5698</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -550,7 +554,7 @@
         <v>6128</v>
       </c>
       <c r="C8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -561,7 +565,7 @@
         <v>6547</v>
       </c>
       <c r="C9" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -572,7 +576,7 @@
         <v>6882</v>
       </c>
       <c r="C10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -583,7 +587,7 @@
         <v>7599</v>
       </c>
       <c r="C11" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -594,7 +598,7 @@
         <v>8208</v>
       </c>
       <c r="C12" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -605,7 +609,7 @@
         <v>3754</v>
       </c>
       <c r="C13" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -616,7 +620,7 @@
         <v>4168</v>
       </c>
       <c r="C14" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -627,7 +631,7 @@
         <v>4655</v>
       </c>
       <c r="C15" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -638,7 +642,7 @@
         <v>5130</v>
       </c>
       <c r="C16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -649,7 +653,7 @@
         <v>5702</v>
       </c>
       <c r="C17" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -660,7 +664,7 @@
         <v>6099</v>
       </c>
       <c r="C18" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -671,7 +675,7 @@
         <v>6539</v>
       </c>
       <c r="C19" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -682,7 +686,7 @@
         <v>6967</v>
       </c>
       <c r="C20" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -693,7 +697,7 @@
         <v>7338</v>
       </c>
       <c r="C21" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -704,7 +708,7 @@
         <v>8077</v>
       </c>
       <c r="C22" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -715,7 +719,7 @@
         <v>8681</v>
       </c>
       <c r="C23" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -726,7 +730,7 @@
         <v>2959</v>
       </c>
       <c r="C24" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -737,7 +741,7 @@
         <v>3295</v>
       </c>
       <c r="C25" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -748,7 +752,7 @@
         <v>3712</v>
       </c>
       <c r="C26" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -759,7 +763,7 @@
         <v>4096</v>
       </c>
       <c r="C27" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -770,7 +774,7 @@
         <v>4437</v>
       </c>
       <c r="C28" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -781,7 +785,7 @@
         <v>4739</v>
       </c>
       <c r="C29" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -792,7 +796,7 @@
         <v>5108</v>
       </c>
       <c r="C30" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -803,7 +807,7 @@
         <v>5548</v>
       </c>
       <c r="C31" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -814,7 +818,7 @@
         <v>5848</v>
       </c>
       <c r="C32" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -825,7 +829,7 @@
         <v>6452</v>
       </c>
       <c r="C33" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -836,7 +840,7 @@
         <v>6984</v>
       </c>
       <c r="C34" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -847,7 +851,7 @@
         <v>3308</v>
       </c>
       <c r="C35" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -858,7 +862,7 @@
         <v>3679</v>
       </c>
       <c r="C36" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -869,7 +873,7 @@
         <v>4124</v>
       </c>
       <c r="C37" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -880,7 +884,7 @@
         <v>4544</v>
       </c>
       <c r="C38" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -891,7 +895,7 @@
         <v>4917</v>
       </c>
       <c r="C39" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -902,7 +906,7 @@
         <v>5262</v>
       </c>
       <c r="C40" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -913,7 +917,7 @@
         <v>5778</v>
       </c>
       <c r="C41" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -924,7 +928,7 @@
         <v>6165</v>
       </c>
       <c r="C42" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -935,7 +939,7 @@
         <v>6491</v>
       </c>
       <c r="C43" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -946,7 +950,7 @@
         <v>7147</v>
       </c>
       <c r="C44" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -957,7 +961,7 @@
         <v>7726</v>
       </c>
       <c r="C45" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -968,7 +972,7 @@
         <v>3468</v>
       </c>
       <c r="C46" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -979,7 +983,7 @@
         <v>3862</v>
       </c>
       <c r="C47" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -990,7 +994,7 @@
         <v>4322</v>
       </c>
       <c r="C48" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1001,7 +1005,7 @@
         <v>4748</v>
       </c>
       <c r="C49" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1012,7 +1016,7 @@
         <v>5157</v>
       </c>
       <c r="C50" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1023,7 +1027,7 @@
         <v>5641</v>
       </c>
       <c r="C51" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1034,7 +1038,7 @@
         <v>6051</v>
       </c>
       <c r="C52" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1045,7 +1049,7 @@
         <v>6466</v>
       </c>
       <c r="C53" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1056,7 +1060,7 @@
         <v>6803</v>
       </c>
       <c r="C54" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1067,7 +1071,7 @@
         <v>7474</v>
       </c>
       <c r="C55" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1078,7 +1082,7 @@
         <v>8063</v>
       </c>
       <c r="C56" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1089,7 +1093,7 @@
         <v>3713</v>
       </c>
       <c r="C57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1100,7 +1104,7 @@
         <v>4124</v>
       </c>
       <c r="C58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1111,7 +1115,7 @@
         <v>4602</v>
       </c>
       <c r="C59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1122,7 +1126,7 @@
         <v>5082</v>
       </c>
       <c r="C60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1133,7 +1137,7 @@
         <v>5647</v>
       </c>
       <c r="C61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1144,7 +1148,7 @@
         <v>6031</v>
       </c>
       <c r="C62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1155,7 +1159,7 @@
         <v>6468</v>
       </c>
       <c r="C63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1166,7 +1170,7 @@
         <v>6884</v>
       </c>
       <c r="C64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1177,7 +1181,7 @@
         <v>7247</v>
       </c>
       <c r="C65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1188,7 +1192,7 @@
         <v>7946</v>
       </c>
       <c r="C66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1199,7 +1203,7 @@
         <v>8522</v>
       </c>
       <c r="C67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1210,7 +1214,7 @@
         <v>2917</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1221,7 +1225,7 @@
         <v>3244</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1232,7 +1236,7 @@
         <v>3654</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1243,7 +1247,7 @@
         <v>4025</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1254,7 +1258,7 @@
         <v>4360</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1265,7 +1269,7 @@
         <v>4664</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1276,7 +1280,7 @@
         <v>5010</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1287,7 +1291,7 @@
         <v>5380</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1298,7 +1302,7 @@
         <v>5722</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1309,7 +1313,7 @@
         <v>6296</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1320,7 +1324,7 @@
         <v>6784</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
